--- a/data/case2_AC.xlsx
+++ b/data/case2_AC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCAA369-8F3F-4F5A-8EB9-E00EE32145A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE59AF-E04D-4DE3-8AEC-9784AAD986F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hvdc" sheetId="12" r:id="rId1"/>
@@ -27,8 +27,19 @@
     <sheet name="baseMVA" sheetId="11" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -108,18 +119,12 @@
     <t>D1</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>100000</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>from_busname</t>
   </si>
   <si>
@@ -168,9 +173,6 @@
     <t>0.0001</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>PhaseShift</t>
   </si>
   <si>
@@ -244,9 +246,6 @@
   </si>
   <si>
     <t>G1</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>-300</t>
@@ -664,54 +663,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -747,7 +746,7 @@
         <v>1E-4</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -762,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,61 +784,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -847,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -861,17 +860,17 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
+      <c r="G2">
+        <v>-250</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -889,28 +888,28 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
         <v>13</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="V2">
         <v>500</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +951,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1099,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1133,39 +1132,41 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>9000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <f>C2/3</f>
+        <v>166.66666666666666</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>50000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <f>C3*35/100</f>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1180,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,45 +1193,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1245,28 +1246,28 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1293,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1305,43 +1306,43 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1374,31 +1375,31 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1428,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1461,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/case2_AC.xlsx
+++ b/data/case2_AC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE59AF-E04D-4DE3-8AEC-9784AAD986F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC2AF4F-2157-4499-B68B-07D7081A2EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,7 +1180,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/case2_AC.xlsx
+++ b/data/case2_AC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC2AF4F-2157-4499-B68B-07D7081A2EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EF143-B33D-4E00-97C8-B020181DD546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hvdc" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>baseMVA</t>
-  </si>
-  <si>
-    <t>marginal_cost</t>
   </si>
   <si>
     <t>Test</t>
@@ -650,15 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377B432-B755-4411-A970-729F4FF71B71}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,15 +699,21 @@
         <v>2</v>
       </c>
       <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -746,9 +749,15 @@
         <v>1E-4</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>0</v>
       </c>
     </row>
@@ -761,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1231,7 +1240,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
